--- a/Test_Cases_Alerts.xlsx
+++ b/Test_Cases_Alerts.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsahu\Desktop\Desktop\Daily Tracker Laxmi\0411\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="iOS" sheetId="3" r:id="rId2"/>
-    <sheet name="Android" sheetId="4" r:id="rId3"/>
-    <sheet name="Web" sheetId="1" r:id="rId4"/>
+    <sheet name="iOS" sheetId="3" r:id="rId1"/>
+    <sheet name="Android" sheetId="4" r:id="rId2"/>
+    <sheet name="Web" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="140">
   <si>
     <t>Sl No</t>
   </si>
@@ -881,18 +880,6 @@
 where X is total no if unread alerts.
 </t>
     </r>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>iOS</t>
-  </si>
-  <si>
-    <t>Android</t>
   </si>
   <si>
     <t>iOS - Verify various Alerts on ONE-KEY</t>
@@ -2637,20 +2624,8 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2696,6 +2671,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2977,36 +2964,644 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C8:D10"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="4" width="50.7109375" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>47</v>
       </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>13</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>14</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>15</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>16</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>17</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>18</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>19</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>20</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>21</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>22</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>23</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>24</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>25</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>26</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>27</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>28</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>29</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>30</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>31</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>32</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>33</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>34</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>35</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>36</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>37</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>38</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>39</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>40</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>41</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3015,635 +3610,635 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="4" width="50.7109375" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="4" width="50.7109375" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>1</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>2</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>3</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="285" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>5</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>6</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>13</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>14</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>15</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>16</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>17</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>18</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>7</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="B23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>20</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>21</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>8</v>
-      </c>
-      <c r="B12" s="16" t="s">
+      <c r="B26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>23</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>24</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>25</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>26</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>27</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>28</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>9</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>10</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>29</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <v>12</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>30</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>31</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>32</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>33</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>13</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <v>14</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <v>15</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>34</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <v>16</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <v>17</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
-        <v>18</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
-        <v>19</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="225" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>20</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <v>21</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="315" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
-        <v>22</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="B39" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>36</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>37</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
-        <v>23</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
-        <v>24</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
-        <v>25</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <v>26</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
-        <v>27</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19" t="s">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>38</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
-        <v>28</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19" t="s">
+      <c r="D42" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="240" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
-        <v>29</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
-        <v>30</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
-        <v>31</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
-        <v>32</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="255" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
-        <v>33</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
-        <v>34</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
-        <v>35</v>
-      </c>
-      <c r="B39" s="13" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>39</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>40</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
-        <v>36</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13" t="s">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
-        <v>37</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
-        <v>38</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
-        <v>39</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13" t="s">
+    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>41</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
-        <v>40</v>
-      </c>
-      <c r="B44" s="13" t="s">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
-        <v>41</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3657,650 +4252,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="4" width="50.7109375" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>1</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>2</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>3</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="285" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>5</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>6</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>7</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>8</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>9</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>10</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>11</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <v>12</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>13</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <v>14</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <v>15</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <v>16</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <v>17</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
-        <v>18</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
-        <v>19</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="225" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>20</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <v>21</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="315" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
-        <v>22</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
-        <v>23</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
-        <v>24</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
-        <v>25</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <v>26</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
-        <v>27</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
-        <v>28</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="240" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
-        <v>29</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
-        <v>30</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
-        <v>31</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
-        <v>32</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="255" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
-        <v>33</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
-        <v>34</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
-        <v>35</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
-        <v>36</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
-        <v>37</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
-        <v>38</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
-        <v>39</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
-        <v>40</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
-        <v>41</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
@@ -4309,478 +4260,478 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="4" width="50.7109375" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="4" width="50.7109375" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="8">
         <v>11</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="11">
         <v>12</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="8">
         <v>14</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="8">
         <v>17</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="11">
         <v>18</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="11">
         <v>19</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="8">
         <v>20</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="11">
         <v>21</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="270" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="11">
         <v>22</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="8">
         <v>23</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="11">
         <v>24</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13" t="s">
-        <v>110</v>
+      <c r="B28" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="405" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="11">
         <v>25</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>26</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>28</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>27</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>26</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
-        <v>28</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
-        <v>27</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
+      <c r="A33" s="8">
         <v>29</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="A34" s="11">
         <v>30</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
+      <c r="A35" s="11">
         <v>31</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="A36" s="8">
         <v>32</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
+      <c r="A37" s="11">
         <v>33</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
+      <c r="A38" s="11">
         <v>34</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="8">
         <v>35</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
+      <c r="A40" s="11">
         <v>36</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
+      <c r="A41" s="11">
         <v>37</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="A42" s="8">
         <v>38</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
